--- a/actius.xlsx
+++ b/actius.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709F1C6-A734-4BC4-ACF0-14113F4E1F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C61451A-A9E5-4B31-B0AE-982FA19FA970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seguiment" sheetId="10" r:id="rId1"/>
+    <sheet name="stockhabitatge" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,12 +76,6 @@
     <t>País Valencià</t>
   </si>
   <si>
-    <t>Estoc en venda</t>
-  </si>
-  <si>
-    <t>Estoc per a llogar</t>
-  </si>
-  <si>
     <t>Productes agrícoles</t>
   </si>
   <si>
@@ -90,16 +85,22 @@
     <t>MSCI Emerging Markets</t>
   </si>
   <si>
-    <t>Tipus d'actiu</t>
-  </si>
-  <si>
-    <t>Rendiment %</t>
-  </si>
-  <si>
     <t>Matèries primeres</t>
   </si>
   <si>
-    <t>Multiple</t>
+    <t>actius</t>
+  </si>
+  <si>
+    <t>rendiment</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>Llogar</t>
   </si>
 </sst>
 </file>
@@ -219,15 +220,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,7 +287,7 @@
     <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -692,7 +690,7 @@
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,219 +704,219 @@
     <col min="8" max="8" width="17.453125" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="8.453125" customWidth="1"/>
+    <col min="11" max="15" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="24">
+        <v>2024</v>
+      </c>
+      <c r="D1" s="24">
+        <v>2023</v>
+      </c>
+      <c r="E1" s="24">
+        <v>2000</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="3">
-        <f ca="1">NOW()</f>
-        <v>45514.613595370371</v>
-      </c>
-      <c r="D1" s="3">
-        <v>45291</v>
-      </c>
-      <c r="E1" s="3">
-        <v>36891</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <f>(C2*100/D2)-100</f>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B13" si="0">(C2*100/D2)-100</f>
         <v>22.643324355521358</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>51000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>41584</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
-        <f>(C3*100/D3)-100</f>
+      <c r="B3" s="3">
+        <f t="shared" si="0"/>
         <v>19.605911330049267</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2428</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2030</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>273</v>
       </c>
-      <c r="F3" s="23">
-        <f>C3/E3</f>
+      <c r="F3" s="22">
+        <f t="shared" ref="F3:F13" si="1">C3/E3</f>
         <v>8.8937728937728942</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
-        <f>(C4*100/D4)-100</f>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
         <v>12.784810126582272</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>5346</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>4740</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>1320</v>
       </c>
-      <c r="F4" s="23">
-        <f>C4/E4</f>
+      <c r="F4" s="22">
+        <f t="shared" si="1"/>
         <v>4.05</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4">
-        <f>(C5*100/D5)-100</f>
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
         <v>8.9108910891089153</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>3410</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>3131</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>1344</v>
       </c>
-      <c r="F5" s="23">
-        <f>C5/E5</f>
+      <c r="F5" s="22">
+        <f t="shared" si="1"/>
         <v>2.5372023809523809</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4">
-        <f>(C6*100/D6)-100</f>
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
         <v>8.2349711776008832</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>3943</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3643</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>2696</v>
       </c>
-      <c r="F6" s="23">
-        <f>C6/E6</f>
+      <c r="F6" s="22">
+        <f t="shared" si="1"/>
         <v>1.4625370919881306</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <f>(C7*100/D7)-100</f>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
         <v>5.4358472086189948</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2153</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2042</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>974</v>
       </c>
-      <c r="F7" s="23">
-        <f>C7/E7</f>
+      <c r="F7" s="22">
+        <f t="shared" si="1"/>
         <v>2.2104722792607805</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4">
-        <f>(C8*100/D8)-100</f>
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
         <v>2.0060180541624817</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1017</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>997</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>574</v>
       </c>
-      <c r="F8" s="23">
-        <f>C8/E8</f>
+      <c r="F8" s="22">
+        <f t="shared" si="1"/>
         <v>1.7717770034843205</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
-        <f>(C9*100/D9)-100</f>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
         <v>1.0652463382157151</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>16698</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>16522</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>15095</v>
       </c>
-      <c r="F9" s="23">
-        <f>C9/E9</f>
+      <c r="F9" s="22">
+        <f t="shared" si="1"/>
         <v>1.1061941040079497</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <f>(C10*100/D10)-100</f>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
         <v>-0.63989408649602808</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>4503</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>4532</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>3540</v>
       </c>
-      <c r="F10" s="23">
-        <f>C10/E10</f>
+      <c r="F10" s="22">
+        <f t="shared" si="1"/>
         <v>1.2720338983050847</v>
       </c>
     </row>
@@ -926,690 +924,380 @@
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4">
-        <f>(C11*100/D11)-100</f>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
         <v>-3.8461538461538396</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>75</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>78</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>24</v>
       </c>
-      <c r="F11" s="23">
-        <f>C11/E11</f>
+      <c r="F11" s="22">
+        <f t="shared" si="1"/>
         <v>3.125</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4">
-        <f>(C12*100/D12)-100</f>
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
         <v>-4.3778801843318007</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>1245</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1302</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>918</v>
       </c>
-      <c r="F12" s="23">
-        <f>C12/E12</f>
+      <c r="F12" s="22">
+        <f t="shared" si="1"/>
         <v>1.3562091503267975</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4">
-        <f>(C13*100/D13)-100</f>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
         <v>-6.4451067160360083</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>31078</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>33219</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>13785</v>
       </c>
-      <c r="F13" s="23">
-        <f>C13/E13</f>
+      <c r="F13" s="22">
+        <f t="shared" si="1"/>
         <v>2.2544795067101924</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <f ca="1">NOW()</f>
-        <v>45514.613595370371</v>
-      </c>
-      <c r="D15" s="9">
-        <v>45292</v>
-      </c>
-      <c r="E15" s="9">
-        <v>44927</v>
-      </c>
-      <c r="F15" s="9">
-        <v>44562</v>
-      </c>
-      <c r="G15" s="9">
-        <v>44197</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4">
-        <f>(C16*100/D16)-100</f>
-        <v>-18.015324238460096</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4387</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5351</v>
-      </c>
-      <c r="E16" s="5">
-        <v>7856</v>
-      </c>
-      <c r="F16" s="18">
-        <v>10352</v>
-      </c>
-      <c r="G16" s="19">
-        <v>13023</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" ref="B17:B21" si="0">(C17*100/D17)-100</f>
-        <v>-9.1178945179190976</v>
-      </c>
-      <c r="C17" s="5">
-        <v>96136</v>
-      </c>
-      <c r="D17" s="5">
-        <v>105781</v>
-      </c>
-      <c r="E17" s="5">
-        <v>120344</v>
-      </c>
-      <c r="F17" s="18">
-        <v>140667</v>
-      </c>
-      <c r="G17" s="19">
-        <v>145180</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>-11.062093305393191</v>
-      </c>
-      <c r="C18" s="5">
-        <v>16128</v>
-      </c>
-      <c r="D18" s="5">
-        <v>18134</v>
-      </c>
-      <c r="E18" s="5">
-        <v>22107</v>
-      </c>
-      <c r="F18" s="18">
-        <v>24750</v>
-      </c>
-      <c r="G18" s="19">
-        <v>23155</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.5261289905170372</v>
-      </c>
-      <c r="C19" s="5">
-        <v>103297</v>
-      </c>
-      <c r="D19" s="5">
-        <v>108194</v>
-      </c>
-      <c r="E19" s="5">
-        <v>113475</v>
-      </c>
-      <c r="F19" s="18">
-        <v>113522</v>
-      </c>
-      <c r="G19" s="19">
-        <v>117586</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>-10.422740524781346</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3687</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4116</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4802</v>
-      </c>
-      <c r="F20" s="18">
-        <v>5513</v>
-      </c>
-      <c r="G20" s="19">
-        <v>5954</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
-        <v>-7.0863147706453731</v>
-      </c>
-      <c r="C21" s="5">
-        <v>26879</v>
-      </c>
-      <c r="D21" s="5">
-        <v>28929</v>
-      </c>
-      <c r="E21" s="5">
-        <v>29223</v>
-      </c>
-      <c r="F21" s="18">
-        <v>31497</v>
-      </c>
-      <c r="G21" s="19">
-        <v>35814</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E22" s="11"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
-        <f ca="1">NOW()</f>
-        <v>45514.613595370371</v>
-      </c>
-      <c r="D23" s="9">
-        <v>45292</v>
-      </c>
-      <c r="E23" s="9">
-        <v>44927</v>
-      </c>
-      <c r="F23" s="9">
-        <v>44562</v>
-      </c>
-      <c r="G23" s="9">
-        <v>44197</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="4">
-        <f>(C24*100/D24)-100</f>
-        <v>36.714285714285722</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2871</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2100</v>
-      </c>
-      <c r="E24" s="12">
-        <v>1593</v>
-      </c>
-      <c r="F24" s="12">
-        <v>2709</v>
-      </c>
-      <c r="G24" s="17">
-        <v>6092</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4">
-        <f t="shared" ref="B25:B29" si="1">(C25*100/D25)-100</f>
-        <v>23.341441839893847</v>
-      </c>
-      <c r="C25" s="5">
-        <v>11155</v>
-      </c>
-      <c r="D25" s="5">
-        <v>9044</v>
-      </c>
-      <c r="E25" s="12">
-        <v>7708</v>
-      </c>
-      <c r="F25" s="12">
-        <v>9737</v>
-      </c>
-      <c r="G25" s="17">
-        <v>15873</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" si="1"/>
-        <v>-8.8805074575690099</v>
-      </c>
-      <c r="C26" s="5">
-        <v>5315</v>
-      </c>
-      <c r="D26" s="5">
-        <v>5833</v>
-      </c>
-      <c r="E26" s="12">
-        <v>5809</v>
-      </c>
-      <c r="F26" s="12">
-        <v>6960</v>
-      </c>
-      <c r="G26" s="17">
-        <v>18442</v>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4">
-        <f t="shared" si="1"/>
-        <v>-8.8496499843276553</v>
-      </c>
-      <c r="C27" s="5">
-        <v>8724</v>
-      </c>
-      <c r="D27" s="5">
-        <v>9571</v>
-      </c>
-      <c r="E27" s="12">
-        <v>10067</v>
-      </c>
-      <c r="F27" s="12">
-        <v>10452</v>
-      </c>
-      <c r="G27" s="17">
-        <v>23713</v>
-      </c>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="4">
-        <f t="shared" si="1"/>
-        <v>-13.900134952766535</v>
-      </c>
-      <c r="C28" s="5">
-        <v>638</v>
-      </c>
-      <c r="D28" s="5">
-        <v>741</v>
-      </c>
-      <c r="E28" s="12">
-        <v>942</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1414</v>
-      </c>
-      <c r="G28" s="17">
-        <v>2623</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.0420168067226854</v>
-      </c>
-      <c r="C29" s="5">
-        <v>3164</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3332</v>
-      </c>
-      <c r="E29" s="12">
-        <v>3606</v>
-      </c>
-      <c r="F29" s="12">
-        <v>4549</v>
-      </c>
-      <c r="G29" s="17">
-        <v>7977</v>
-      </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="8"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G42" s="16"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="8"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="8"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="8"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="8"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="8"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="8"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="8"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="8"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="8"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="8"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="8"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="8"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="8"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="8"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="8"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="8"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="8"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="8"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="8"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="8"/>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="8"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="8"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="8"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="8"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="8"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="8"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="8"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="8"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="8"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="8"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="8"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="8"/>
+      <c r="B74" s="7"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="8"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="8"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="8"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="8"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="8"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="8"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="8"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="8"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="8"/>
+      <c r="B83" s="7"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="8"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="8"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="8"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="8"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="8"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="8"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="8"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="8"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="8"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="8"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="8"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="8"/>
+      <c r="B95" s="7"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="8"/>
+      <c r="B96" s="7"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="8"/>
+      <c r="B97" s="7"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="8"/>
+      <c r="B98" s="7"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="8"/>
+      <c r="B99" s="7"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="8"/>
+      <c r="B100" s="7"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="8"/>
+      <c r="B101" s="7"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="8"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="8"/>
+      <c r="B103" s="7"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="8"/>
+      <c r="B104" s="7"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="8"/>
+      <c r="B105" s="7"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="8"/>
+      <c r="B106" s="7"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="8"/>
+      <c r="B107" s="7"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="8"/>
+      <c r="B108" s="7"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="8"/>
+      <c r="B109" s="7"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" s="8"/>
+      <c r="B110" s="7"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="8"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" s="8"/>
+      <c r="B112" s="7"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="8"/>
+      <c r="B113" s="7"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="8"/>
+      <c r="B114" s="7"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="8"/>
+      <c r="B115" s="7"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="8"/>
+      <c r="B116" s="7"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="8"/>
+      <c r="B117" s="7"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="8"/>
+      <c r="B118" s="7"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="8"/>
+      <c r="B119" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
@@ -1629,50 +1317,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B21">
-    <cfRule type="dataBar" priority="51">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CE696D63-C94B-4E3B-8BDB-9E05F5D87994}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B29">
-    <cfRule type="dataBar" priority="59">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64C0BCDC-8B0B-43FC-8E03-22A4A37AF5EA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" xr:uid="{50835C29-5741-434F-BCD5-908A6B3EA4BD}"/>
-    <hyperlink ref="A19" r:id="rId2" xr:uid="{FB04BE11-B181-4ED9-AE41-4462738DBBBE}"/>
-    <hyperlink ref="A21" r:id="rId3" xr:uid="{B92BDD67-38C9-43BE-B66E-BA7D260F872E}"/>
-    <hyperlink ref="A18" r:id="rId4" xr:uid="{D96A4E95-B90F-4DAD-99A2-F32F27C164A6}"/>
-    <hyperlink ref="A16" r:id="rId5" xr:uid="{3629EE4D-6306-40F4-A132-6B1C70200C58}"/>
-    <hyperlink ref="A20" r:id="rId6" xr:uid="{09550A5B-F0B2-48CD-9A59-FF47CD3FA7FD}"/>
-    <hyperlink ref="A25" r:id="rId7" xr:uid="{7105203B-7493-49F0-8E74-CB6A712680D8}"/>
-    <hyperlink ref="A27" r:id="rId8" xr:uid="{B289D3F0-7287-4294-BA21-38675B695437}"/>
-    <hyperlink ref="A29" r:id="rId9" xr:uid="{ACADC4A3-688A-4E23-96AE-A46C3938958E}"/>
-    <hyperlink ref="A26" r:id="rId10" xr:uid="{BEC8E3E5-DA94-4287-AADC-8F5762930EFB}"/>
-    <hyperlink ref="A24" r:id="rId11" xr:uid="{4BCEBC64-9C49-4ADD-B502-2D6D909D0053}"/>
-    <hyperlink ref="A28" r:id="rId12" xr:uid="{B055D590-FAFC-4501-A719-0CB607601A31}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1689,8 +1335,427 @@
           </x14:cfRule>
           <xm:sqref>B2:B13</xm:sqref>
         </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0A71B-F9FA-4E45-8679-5B51BE4A2368}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
+    <col min="14" max="14" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8">
+        <f ca="1">NOW()</f>
+        <v>45514.791192592595</v>
+      </c>
+      <c r="D1" s="8">
+        <v>45292</v>
+      </c>
+      <c r="E1" s="8">
+        <v>44927</v>
+      </c>
+      <c r="F1" s="8">
+        <v>44562</v>
+      </c>
+      <c r="G1" s="8">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B7" si="0">(C2*100/D2)-100</f>
+        <v>-18.015324238460096</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4387</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5351</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7856</v>
+      </c>
+      <c r="F2" s="17">
+        <v>10352</v>
+      </c>
+      <c r="G2" s="18">
+        <v>13023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.1178945179190976</v>
+      </c>
+      <c r="C3" s="4">
+        <v>96136</v>
+      </c>
+      <c r="D3" s="4">
+        <v>105781</v>
+      </c>
+      <c r="E3" s="4">
+        <v>120344</v>
+      </c>
+      <c r="F3" s="17">
+        <v>140667</v>
+      </c>
+      <c r="G3" s="18">
+        <v>145180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>-11.062093305393191</v>
+      </c>
+      <c r="C4" s="4">
+        <v>16128</v>
+      </c>
+      <c r="D4" s="4">
+        <v>18134</v>
+      </c>
+      <c r="E4" s="4">
+        <v>22107</v>
+      </c>
+      <c r="F4" s="17">
+        <v>24750</v>
+      </c>
+      <c r="G4" s="18">
+        <v>23155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.5261289905170372</v>
+      </c>
+      <c r="C5" s="4">
+        <v>103297</v>
+      </c>
+      <c r="D5" s="4">
+        <v>108194</v>
+      </c>
+      <c r="E5" s="4">
+        <v>113475</v>
+      </c>
+      <c r="F5" s="17">
+        <v>113522</v>
+      </c>
+      <c r="G5" s="18">
+        <v>117586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>-10.422740524781346</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3687</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4116</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4802</v>
+      </c>
+      <c r="F6" s="17">
+        <v>5513</v>
+      </c>
+      <c r="G6" s="18">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.0863147706453731</v>
+      </c>
+      <c r="C7" s="4">
+        <v>26879</v>
+      </c>
+      <c r="D7" s="4">
+        <v>28929</v>
+      </c>
+      <c r="E7" s="4">
+        <v>29223</v>
+      </c>
+      <c r="F7" s="17">
+        <v>31497</v>
+      </c>
+      <c r="G7" s="18">
+        <v>35814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <f ca="1">NOW()</f>
+        <v>45514.791192592595</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45292</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44927</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44562</v>
+      </c>
+      <c r="G9" s="8">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" ref="B10:B15" si="1">(C10*100/D10)-100</f>
+        <v>36.714285714285722</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2871</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1593</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2709</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>23.341441839893847</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11155</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9044</v>
+      </c>
+      <c r="E11" s="11">
+        <v>7708</v>
+      </c>
+      <c r="F11" s="11">
+        <v>9737</v>
+      </c>
+      <c r="G11" s="16">
+        <v>15873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.8805074575690099</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5315</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5833</v>
+      </c>
+      <c r="E12" s="11">
+        <v>5809</v>
+      </c>
+      <c r="F12" s="11">
+        <v>6960</v>
+      </c>
+      <c r="G12" s="16">
+        <v>18442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.8496499843276553</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8724</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9571</v>
+      </c>
+      <c r="E13" s="11">
+        <v>10067</v>
+      </c>
+      <c r="F13" s="11">
+        <v>10452</v>
+      </c>
+      <c r="G13" s="16">
+        <v>23713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>-13.900134952766535</v>
+      </c>
+      <c r="C14" s="4">
+        <v>638</v>
+      </c>
+      <c r="D14" s="4">
+        <v>741</v>
+      </c>
+      <c r="E14" s="11">
+        <v>942</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1414</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.0420168067226854</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3164</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3332</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3606</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4549</v>
+      </c>
+      <c r="G15" s="16">
+        <v>7977</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F944D2F6-4EB8-4FE5-92B8-18FC87E7799F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B15">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DFD4702-AFA2-4D91-98CB-0AD8A93A7697}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{50835C29-5741-434F-BCD5-908A6B3EA4BD}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{FB04BE11-B181-4ED9-AE41-4462738DBBBE}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{B92BDD67-38C9-43BE-B66E-BA7D260F872E}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{D96A4E95-B90F-4DAD-99A2-F32F27C164A6}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{3629EE4D-6306-40F4-A132-6B1C70200C58}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{09550A5B-F0B2-48CD-9A59-FF47CD3FA7FD}"/>
+    <hyperlink ref="A11" r:id="rId7" xr:uid="{7105203B-7493-49F0-8E74-CB6A712680D8}"/>
+    <hyperlink ref="A13" r:id="rId8" xr:uid="{B289D3F0-7287-4294-BA21-38675B695437}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{ACADC4A3-688A-4E23-96AE-A46C3938958E}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{BEC8E3E5-DA94-4287-AADC-8F5762930EFB}"/>
+    <hyperlink ref="A10" r:id="rId11" xr:uid="{4BCEBC64-9C49-4ADD-B502-2D6D909D0053}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{B055D590-FAFC-4501-A719-0CB607601A31}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CE696D63-C94B-4E3B-8BDB-9E05F5D87994}">
+          <x14:cfRule type="dataBar" id="{F944D2F6-4EB8-4FE5-92B8-18FC87E7799F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1700,10 +1765,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B16:B21</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{64C0BCDC-8B0B-43FC-8E03-22A4A37AF5EA}">
+          <x14:cfRule type="dataBar" id="{5DFD4702-AFA2-4D91-98CB-0AD8A93A7697}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1713,7 +1778,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B24:B29</xm:sqref>
+          <xm:sqref>B10:B15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/actius.xlsx
+++ b/actius.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C61451A-A9E5-4B31-B0AE-982FA19FA970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED99CAEB-7E94-4C7C-9FAA-74C27CA3D0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,7 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,12 +255,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -288,6 +285,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -687,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46881C33-0DEF-4826-9ADB-EC41A994B532}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,110 +710,110 @@
     <col min="11" max="15" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="21">
         <v>2024</v>
       </c>
-      <c r="D1" s="24">
+      <c r="D1" s="21">
         <v>2023</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="21">
         <v>2000</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:B13" si="0">(C2*100/D2)-100</f>
-        <v>22.643324355521358</v>
+        <v>45.969603693728345</v>
       </c>
       <c r="C2" s="4">
-        <v>51000</v>
+        <v>60700</v>
       </c>
       <c r="D2" s="4">
         <v>41584</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="16"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" si="0"/>
-        <v>19.605911330049267</v>
+        <v>21.674876847290633</v>
       </c>
       <c r="C3" s="4">
-        <v>2428</v>
+        <v>2470</v>
       </c>
       <c r="D3" s="4">
         <v>2030</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <v>273</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F13" si="1">C3/E3</f>
-        <v>8.8937728937728942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="20" t="s">
+        <v>9.0476190476190474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>12.784810126582272</v>
+        <v>12.742616033755269</v>
       </c>
       <c r="C4" s="4">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="D4" s="4">
         <v>4740</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>1320</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="19">
         <f t="shared" si="1"/>
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>4.0484848484848488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>8.9108910891089153</v>
+        <v>10.09262216544235</v>
       </c>
       <c r="C5" s="4">
-        <v>3410</v>
+        <v>3447</v>
       </c>
       <c r="D5" s="4">
         <v>3131</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>1344</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="19">
         <f t="shared" si="1"/>
-        <v>2.5372023809523809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>2.5647321428571428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -824,480 +827,179 @@
       <c r="D6" s="4">
         <v>3643</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <v>2696</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <f t="shared" si="1"/>
         <v>1.4625370919881306</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6198595787362109</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1063</v>
+      </c>
+      <c r="D7" s="4">
+        <v>997</v>
+      </c>
+      <c r="E7" s="16">
+        <v>574</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
+        <v>1.8519163763066202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.605225924922479</v>
+      </c>
+      <c r="C8" s="4">
+        <v>35081</v>
+      </c>
+      <c r="D8" s="4">
+        <v>33219</v>
+      </c>
+      <c r="E8" s="16">
+        <v>13785</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5448676097207108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>5.4358472086189948</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C9" s="4">
         <v>2153</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D9" s="4">
         <v>2042</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E9" s="16">
         <v>974</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F9" s="19">
         <f t="shared" si="1"/>
         <v>2.2104722792607805</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0060180541624817</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1017</v>
-      </c>
-      <c r="D8" s="4">
-        <v>997</v>
-      </c>
-      <c r="E8" s="19">
-        <v>574</v>
-      </c>
-      <c r="F8" s="22">
+    <row r="10" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.437840455150706</v>
+      </c>
+      <c r="C10" s="4">
+        <v>17090</v>
+      </c>
+      <c r="D10" s="4">
+        <v>16522</v>
+      </c>
+      <c r="E10" s="16">
+        <v>15095</v>
+      </c>
+      <c r="F10" s="19">
         <f t="shared" si="1"/>
-        <v>1.7717770034843205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0652463382157151</v>
-      </c>
-      <c r="C9" s="4">
-        <v>16698</v>
-      </c>
-      <c r="D9" s="4">
-        <v>16522</v>
-      </c>
-      <c r="E9" s="19">
-        <v>15095</v>
-      </c>
-      <c r="F9" s="22">
+        <v>1.1321629678701557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1332744924977902</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4674</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4532</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3540</v>
+      </c>
+      <c r="F11" s="19">
         <f t="shared" si="1"/>
-        <v>1.1061941040079497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.63989408649602808</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4503</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4532</v>
-      </c>
-      <c r="E10" s="19">
-        <v>3540</v>
-      </c>
-      <c r="F10" s="22">
+        <v>1.3203389830508474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512846</v>
+      </c>
+      <c r="C12" s="4">
+        <v>79</v>
+      </c>
+      <c r="D12" s="4">
+        <v>78</v>
+      </c>
+      <c r="E12" s="16">
+        <v>24</v>
+      </c>
+      <c r="F12" s="19">
         <f t="shared" si="1"/>
-        <v>1.2720338983050847</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>-3.8461538461538396</v>
-      </c>
-      <c r="C11" s="4">
-        <v>75</v>
-      </c>
-      <c r="D11" s="4">
-        <v>78</v>
-      </c>
-      <c r="E11" s="19">
-        <v>24</v>
-      </c>
-      <c r="F11" s="22">
+        <v>3.2916666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.2258064516128968</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1260</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1302</v>
+      </c>
+      <c r="E13" s="16">
+        <v>918</v>
+      </c>
+      <c r="F13" s="19">
         <f t="shared" si="1"/>
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>-4.3778801843318007</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1245</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1302</v>
-      </c>
-      <c r="E12" s="19">
-        <v>918</v>
-      </c>
-      <c r="F12" s="22">
-        <f t="shared" si="1"/>
-        <v>1.3562091503267975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>-6.4451067160360083</v>
-      </c>
-      <c r="C13" s="4">
-        <v>31078</v>
-      </c>
-      <c r="D13" s="4">
-        <v>33219</v>
-      </c>
-      <c r="E13" s="19">
-        <v>13785</v>
-      </c>
-      <c r="F13" s="22">
-        <f t="shared" si="1"/>
-        <v>2.2544795067101924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="7"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="7"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="7"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="7"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="7"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="7"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="7"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="7"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="7"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="7"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="7"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="7"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="7"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="7"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="7"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="7"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="7"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="7"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="7"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="7"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="7"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="7"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="7"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="7"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="7"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="7"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="7"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="7"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="7"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="7"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="7"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="7"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="7"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="7"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="7"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="7"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="7"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="7"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="7"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="7"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="7"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="7"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="7"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="7"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="7"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" s="7"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="7"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" s="7"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="7"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="7"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="7"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="7"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="7"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="7"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="7"/>
+        <v>1.3725490196078431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
@@ -1376,7 +1078,7 @@
       </c>
       <c r="C1" s="8">
         <f ca="1">NOW()</f>
-        <v>45514.791192592595</v>
+        <v>45514.823775115743</v>
       </c>
       <c r="D1" s="8">
         <v>45292</v>
@@ -1408,10 +1110,10 @@
       <c r="E2" s="4">
         <v>7856</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="14">
         <v>10352</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="15">
         <v>13023</v>
       </c>
     </row>
@@ -1432,10 +1134,10 @@
       <c r="E3" s="4">
         <v>120344</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>140667</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <v>145180</v>
       </c>
     </row>
@@ -1456,10 +1158,10 @@
       <c r="E4" s="4">
         <v>22107</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>24750</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <v>23155</v>
       </c>
     </row>
@@ -1480,10 +1182,10 @@
       <c r="E5" s="4">
         <v>113475</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>113522</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>117586</v>
       </c>
     </row>
@@ -1504,10 +1206,10 @@
       <c r="E6" s="4">
         <v>4802</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>5513</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <v>5954</v>
       </c>
     </row>
@@ -1528,10 +1230,10 @@
       <c r="E7" s="4">
         <v>29223</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>31497</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <v>35814</v>
       </c>
     </row>
@@ -1548,7 +1250,7 @@
       </c>
       <c r="C9" s="8">
         <f ca="1">NOW()</f>
-        <v>45514.791192592595</v>
+        <v>45514.823775115743</v>
       </c>
       <c r="D9" s="8">
         <v>45292</v>
@@ -1583,7 +1285,7 @@
       <c r="F10" s="11">
         <v>2709</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="13">
         <v>6092</v>
       </c>
     </row>
@@ -1607,7 +1309,7 @@
       <c r="F11" s="11">
         <v>9737</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <v>15873</v>
       </c>
     </row>
@@ -1631,7 +1333,7 @@
       <c r="F12" s="11">
         <v>6960</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="13">
         <v>18442</v>
       </c>
     </row>
@@ -1655,7 +1357,7 @@
       <c r="F13" s="11">
         <v>10452</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <v>23713</v>
       </c>
     </row>
@@ -1679,7 +1381,7 @@
       <c r="F14" s="11">
         <v>1414</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="13">
         <v>2623</v>
       </c>
     </row>
@@ -1703,7 +1405,7 @@
       <c r="F15" s="11">
         <v>4549</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="13">
         <v>7977</v>
       </c>
     </row>

--- a/actius.xlsx
+++ b/actius.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED99CAEB-7E94-4C7C-9FAA-74C27CA3D0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A322E-0540-4BD8-A7C2-B234D582B1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Catalunya</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Llogar</t>
+  </si>
+  <si>
+    <t>2000_tr</t>
+  </si>
+  <si>
+    <t>2024_tr</t>
+  </si>
+  <si>
+    <t>actius2</t>
   </si>
 </sst>
 </file>
@@ -220,7 +229,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,9 +290,6 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -291,6 +297,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -690,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46881C33-0DEF-4826-9ADB-EC41A994B532}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,35 +718,48 @@
     <col min="2" max="3" width="20.7265625" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1"/>
-    <col min="11" max="15" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" customWidth="1"/>
+    <col min="8" max="9" width="17.54296875" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="19" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21">
+      <c r="C1" s="20">
         <v>2024</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="20">
         <v>2023</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="20">
         <v>2000</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -745,9 +774,22 @@
         <v>41584</v>
       </c>
       <c r="E2" s="16"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="16"/>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2470</v>
+      </c>
+      <c r="I2" s="16">
+        <v>273</v>
+      </c>
+      <c r="J2" s="19">
+        <f>H2/I2</f>
+        <v>9.0476190476190474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -764,12 +806,22 @@
       <c r="E3" s="16">
         <v>273</v>
       </c>
-      <c r="F3" s="19">
-        <f t="shared" ref="F3:F13" si="1">C3/E3</f>
-        <v>9.0476190476190474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="16">
+        <v>11666</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1825</v>
+      </c>
+      <c r="J3" s="19">
+        <f>H3/I3</f>
+        <v>6.3923287671232876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
@@ -786,12 +838,22 @@
       <c r="E4" s="16">
         <v>1320</v>
       </c>
-      <c r="F4" s="19">
-        <f t="shared" si="1"/>
-        <v>4.0484848484848488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="25"/>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="16">
+        <v>61992</v>
+      </c>
+      <c r="I4" s="16">
+        <v>11153</v>
+      </c>
+      <c r="J4" s="19">
+        <f>H4/I4</f>
+        <v>5.5583251143190173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -808,12 +870,22 @@
       <c r="E5" s="16">
         <v>1344</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" si="1"/>
-        <v>2.5647321428571428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="16"/>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="16">
+        <v>6989</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1344</v>
+      </c>
+      <c r="J5" s="19">
+        <f>H5/I5</f>
+        <v>5.2001488095238093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -830,13 +902,23 @@
       <c r="E6" s="16">
         <v>2696</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" si="1"/>
-        <v>1.4625370919881306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="22" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2239</v>
+      </c>
+      <c r="I6" s="16">
+        <v>574</v>
+      </c>
+      <c r="J6" s="19">
+        <f>H6/I6</f>
+        <v>3.9006968641114983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3">
@@ -852,12 +934,22 @@
       <c r="E7" s="16">
         <v>574</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="1"/>
-        <v>1.8519163763066202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="25"/>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16">
+        <v>11094</v>
+      </c>
+      <c r="I7" s="16">
+        <v>3045</v>
+      </c>
+      <c r="J7" s="19">
+        <f>H7/I7</f>
+        <v>3.6433497536945811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -874,12 +966,22 @@
       <c r="E8" s="16">
         <v>13785</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" si="1"/>
-        <v>2.5448676097207108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="16"/>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="16">
+        <v>56735</v>
+      </c>
+      <c r="I8" s="16">
+        <v>16095</v>
+      </c>
+      <c r="J8" s="19">
+        <f>H8/I8</f>
+        <v>3.5250077663870769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -896,13 +998,23 @@
       <c r="E9" s="16">
         <v>974</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="1"/>
-        <v>2.2104722792607805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="23" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>79</v>
+      </c>
+      <c r="I9" s="16">
+        <v>24</v>
+      </c>
+      <c r="J9" s="19">
+        <f>H9/I9</f>
+        <v>3.2916666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3">
@@ -918,12 +1030,23 @@
       <c r="E10" s="16">
         <v>15095</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
-        <v>1.1321629678701557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="25"/>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2153</v>
+      </c>
+      <c r="I10" s="16">
+        <v>974</v>
+      </c>
+      <c r="J10" s="19">
+        <f>H10/I10</f>
+        <v>2.2104722792607805</v>
+      </c>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -940,12 +1063,22 @@
       <c r="E11" s="16">
         <v>3540</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="1"/>
-        <v>1.3203389830508474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="16"/>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3943</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2696</v>
+      </c>
+      <c r="J11" s="19">
+        <f>H11/I11</f>
+        <v>1.4625370919881306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -962,12 +1095,22 @@
       <c r="E12" s="16">
         <v>24</v>
       </c>
-      <c r="F12" s="19">
-        <f t="shared" si="1"/>
-        <v>3.2916666666666665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="16"/>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1260</v>
+      </c>
+      <c r="I12" s="16">
+        <v>918</v>
+      </c>
+      <c r="J12" s="19">
+        <f>H12/I12</f>
+        <v>1.3725490196078431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -984,26 +1127,11 @@
       <c r="E13" s="16">
         <v>918</v>
       </c>
-      <c r="F13" s="19">
-        <f t="shared" si="1"/>
-        <v>1.3725490196078431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
+      <c r="F13" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
-    <sortCondition descending="1" ref="B2:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:J12">
+    <sortCondition descending="1" ref="J2:J12"/>
   </sortState>
   <conditionalFormatting sqref="B2:B13">
     <cfRule type="dataBar" priority="54">
@@ -1078,7 +1206,7 @@
       </c>
       <c r="C1" s="8">
         <f ca="1">NOW()</f>
-        <v>45514.823775115743</v>
+        <v>45515.524694444444</v>
       </c>
       <c r="D1" s="8">
         <v>45292</v>
@@ -1250,7 +1378,7 @@
       </c>
       <c r="C9" s="8">
         <f ca="1">NOW()</f>
-        <v>45514.823775115743</v>
+        <v>45515.524694444444</v>
       </c>
       <c r="D9" s="8">
         <v>45292</v>

--- a/actius.xlsx
+++ b/actius.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A322E-0540-4BD8-A7C2-B234D582B1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C98EB-E61F-49D7-AC3F-328BFB02222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Catalunya</t>
   </si>
@@ -110,18 +110,37 @@
   </si>
   <si>
     <t>actius2</t>
+  </si>
+  <si>
+    <t>r2023</t>
+  </si>
+  <si>
+    <t>r2022</t>
+  </si>
+  <si>
+    <t>r2021</t>
+  </si>
+  <si>
+    <t>a2023</t>
+  </si>
+  <si>
+    <t>a2022</t>
+  </si>
+  <si>
+    <t>a2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="\+0.0;\-0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0\ _€"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0\ _€"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,8 +191,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +260,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,14 +330,47 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="4" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -386,16 +450,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FFFFF2CC"/>
+      <color rgb="FFB4C6E7"/>
+      <color rgb="FFBD92DE"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFC9CA"/>
+      <color rgb="FFC38649"/>
+      <color rgb="FF996633"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF339933"/>
-      <color rgb="FFFF7C80"/>
-      <color rgb="FF996633"/>
-      <color rgb="FFFFEFEF"/>
-      <color rgb="FFFFC9CA"/>
-      <color rgb="FFFFA7A7"/>
-      <color rgb="FF2AE311"/>
-      <color rgb="FFFF7171"/>
-      <color rgb="FF00B050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -706,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46881C33-0DEF-4826-9ADB-EC41A994B532}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,49 +781,66 @@
     <col min="1" max="1" width="37.81640625" customWidth="1"/>
     <col min="2" max="3" width="20.7265625" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="5.90625" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" customWidth="1"/>
-    <col min="8" max="9" width="17.54296875" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" customWidth="1"/>
+    <col min="7" max="8" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="37.453125" customWidth="1"/>
     <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="19" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="36.6328125" customWidth="1"/>
+    <col min="14" max="14" width="21.36328125" customWidth="1"/>
+    <col min="15" max="15" width="33.1796875" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" customWidth="1"/>
+    <col min="17" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20">
-        <v>2024</v>
-      </c>
-      <c r="D1" s="20">
-        <v>2023</v>
-      </c>
-      <c r="E1" s="20">
-        <v>2000</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="23">
+        <f ca="1">TODAY()</f>
+        <v>45515</v>
+      </c>
+      <c r="D1" s="23">
+        <v>45291</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>26</v>
       </c>
+      <c r="G1" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="H1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -773,23 +854,39 @@
       <c r="D2" s="4">
         <v>41584</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
         <v>2470</v>
       </c>
-      <c r="I2" s="16">
+      <c r="H2" s="16">
         <v>273</v>
       </c>
-      <c r="J2" s="19">
-        <f>H2/I2</f>
+      <c r="I2" s="19">
+        <f>G2/H2</f>
         <v>9.0476190476190474</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="29">
+        <v>160.6</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="19">
+        <v>19.8</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="29">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -803,25 +900,39 @@
       <c r="D3" s="4">
         <v>2030</v>
       </c>
-      <c r="E3" s="16">
-        <v>273</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="31" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="16">
+        <v>11666</v>
+      </c>
       <c r="H3" s="16">
-        <v>11666</v>
-      </c>
-      <c r="I3" s="16">
         <v>1825</v>
       </c>
-      <c r="J3" s="19">
-        <f>H3/I3</f>
+      <c r="I3" s="19">
+        <f t="shared" ref="I2:I12" si="1">G3/H3</f>
         <v>6.3923287671232876</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="29">
+        <v>27.3</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19">
+        <v>10.5</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="29">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
@@ -835,25 +946,39 @@
       <c r="D4" s="4">
         <v>4740</v>
       </c>
-      <c r="E4" s="16">
-        <v>1320</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="32" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="16">
+        <v>61992</v>
+      </c>
       <c r="H4" s="16">
-        <v>61992</v>
-      </c>
-      <c r="I4" s="16">
         <v>11153</v>
       </c>
-      <c r="J4" s="19">
-        <f>H4/I4</f>
+      <c r="I4" s="19">
+        <f t="shared" si="1"/>
         <v>5.5583251143190173</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="29">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -867,25 +992,39 @@
       <c r="D5" s="4">
         <v>3131</v>
       </c>
-      <c r="E5" s="16">
+      <c r="F5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="16">
+        <v>6989</v>
+      </c>
+      <c r="H5" s="16">
         <v>1344</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="9" t="s">
+      <c r="I5" s="19">
+        <f t="shared" si="1"/>
+        <v>5.2001488095238093</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16">
-        <v>6989</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1344</v>
-      </c>
-      <c r="J5" s="19">
-        <f>H5/I5</f>
-        <v>5.2001488095238093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L5" s="29">
+        <v>20.9</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="29">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -899,25 +1038,39 @@
       <c r="D6" s="4">
         <v>3643</v>
       </c>
-      <c r="E6" s="16">
-        <v>2696</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="G6" s="16">
+        <v>2239</v>
+      </c>
       <c r="H6" s="16">
-        <v>2239</v>
-      </c>
-      <c r="I6" s="16">
         <v>574</v>
       </c>
-      <c r="J6" s="19">
-        <f>H6/I6</f>
+      <c r="I6" s="19">
+        <f t="shared" si="1"/>
         <v>3.9006968641114983</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="29">
+        <v>19.5</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="19">
+        <v>-0.1</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="29">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
@@ -931,25 +1084,39 @@
       <c r="D7" s="4">
         <v>997</v>
       </c>
-      <c r="E7" s="16">
-        <v>574</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G7" s="16">
+        <v>11094</v>
+      </c>
       <c r="H7" s="16">
-        <v>11094</v>
-      </c>
-      <c r="I7" s="16">
         <v>3045</v>
       </c>
-      <c r="J7" s="19">
-        <f>H7/I7</f>
+      <c r="I7" s="19">
+        <f t="shared" si="1"/>
         <v>3.6433497536945811</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="29">
+        <v>11.1</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="19">
+        <v>-9.4</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="29">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -963,25 +1130,39 @@
       <c r="D8" s="4">
         <v>33219</v>
       </c>
-      <c r="E8" s="16">
-        <v>13785</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="G8" s="16">
+        <v>56735</v>
+      </c>
       <c r="H8" s="16">
-        <v>56735</v>
-      </c>
-      <c r="I8" s="16">
         <v>16095</v>
       </c>
-      <c r="J8" s="19">
-        <f>H8/I8</f>
+      <c r="I8" s="19">
+        <f t="shared" si="1"/>
         <v>3.5250077663870769</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="19">
+        <v>-11.9</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="29">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -995,25 +1176,39 @@
       <c r="D9" s="4">
         <v>2042</v>
       </c>
-      <c r="E9" s="16">
-        <v>974</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="4">
+      <c r="G9" s="4">
         <v>79</v>
       </c>
-      <c r="I9" s="16">
+      <c r="H9" s="16">
         <v>24</v>
       </c>
-      <c r="J9" s="19">
-        <f>H9/I9</f>
+      <c r="I9" s="19">
+        <f t="shared" si="1"/>
         <v>3.2916666666666665</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="19">
+        <v>-15.5</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
@@ -1027,26 +1222,39 @@
       <c r="D10" s="4">
         <v>16522</v>
       </c>
-      <c r="E10" s="16">
-        <v>15095</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
         <v>2153</v>
       </c>
-      <c r="I10" s="16">
+      <c r="H10" s="16">
         <v>974</v>
       </c>
-      <c r="J10" s="19">
-        <f>H10/I10</f>
+      <c r="I10" s="19">
+        <f t="shared" si="1"/>
         <v>2.2104722792607805</v>
       </c>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="19">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="29">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1060,25 +1268,39 @@
       <c r="D11" s="4">
         <v>4532</v>
       </c>
-      <c r="E11" s="16">
-        <v>3540</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
         <v>3943</v>
       </c>
-      <c r="I11" s="16">
+      <c r="H11" s="16">
         <v>2696</v>
       </c>
-      <c r="J11" s="19">
-        <f>H11/I11</f>
+      <c r="I11" s="19">
+        <f t="shared" si="1"/>
         <v>1.4625370919881306</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="29">
+        <v>-4.8</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="19">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="29">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1092,25 +1314,39 @@
       <c r="D12" s="4">
         <v>78</v>
       </c>
-      <c r="E12" s="16">
-        <v>24</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
         <v>1260</v>
       </c>
-      <c r="I12" s="16">
+      <c r="H12" s="16">
         <v>918</v>
       </c>
-      <c r="J12" s="19">
-        <f>H12/I12</f>
+      <c r="I12" s="19">
+        <f t="shared" si="1"/>
         <v>1.3725490196078431</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="29">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="19">
+        <v>-22.4</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="29">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1124,14 +1360,80 @@
       <c r="D13" s="4">
         <v>1302</v>
       </c>
-      <c r="E13" s="16">
-        <v>918</v>
-      </c>
-      <c r="F13" s="16"/>
+      <c r="K13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="29">
+        <v>-16.5</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="26">
+        <v>-65.099999999999994</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="29">
+        <v>-14.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:J12">
-    <sortCondition descending="1" ref="J2:J12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I12">
+    <sortCondition descending="1" ref="I2:I12"/>
   </sortState>
   <conditionalFormatting sqref="B2:B13">
     <cfRule type="dataBar" priority="54">
@@ -1206,7 +1508,7 @@
       </c>
       <c r="C1" s="8">
         <f ca="1">NOW()</f>
-        <v>45515.524694444444</v>
+        <v>45515.813899652778</v>
       </c>
       <c r="D1" s="8">
         <v>45292</v>
@@ -1378,7 +1680,7 @@
       </c>
       <c r="C9" s="8">
         <f ca="1">NOW()</f>
-        <v>45515.524694444444</v>
+        <v>45515.813899652778</v>
       </c>
       <c r="D9" s="8">
         <v>45292</v>

--- a/actius.xlsx
+++ b/actius.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C98EB-E61F-49D7-AC3F-328BFB02222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59769021-9C30-471A-B65A-FAFE38AE702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Catalunya</t>
   </si>
@@ -112,35 +112,22 @@
     <t>actius2</t>
   </si>
   <si>
-    <t>r2023</t>
-  </si>
-  <si>
-    <t>r2022</t>
-  </si>
-  <si>
-    <t>r2021</t>
-  </si>
-  <si>
-    <t>a2023</t>
-  </si>
-  <si>
-    <t>a2022</t>
-  </si>
-  <si>
-    <t>a2021</t>
+    <t>Bo EUA 10 anys</t>
+  </si>
+  <si>
+    <t>Bo EUA 6 mesos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\+0.0;\-0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0\ _€"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0\ _€"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,12 +174,6 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -260,7 +241,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,12 +305,6 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,18 +314,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="4" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,16 +324,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -770,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46881C33-0DEF-4826-9ADB-EC41A994B532}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,35 +744,29 @@
     <col min="1" max="1" width="37.81640625" customWidth="1"/>
     <col min="2" max="3" width="20.7265625" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" style="24" customWidth="1"/>
     <col min="6" max="6" width="35.81640625" customWidth="1"/>
     <col min="7" max="8" width="17.54296875" customWidth="1"/>
     <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="10" width="5.08984375" style="30" customWidth="1"/>
-    <col min="11" max="11" width="37.453125" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="36.6328125" customWidth="1"/>
-    <col min="14" max="14" width="21.36328125" customWidth="1"/>
-    <col min="15" max="15" width="33.1796875" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" customWidth="1"/>
-    <col min="17" max="18" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" style="24" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="23">
+      <c r="C1" s="21">
         <f ca="1">TODAY()</f>
-        <v>45515</v>
-      </c>
-      <c r="D1" s="23">
+        <v>45606</v>
+      </c>
+      <c r="D1" s="21">
         <v>45291</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="20" t="s">
@@ -821,40 +778,22 @@
       <c r="I1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B13" si="0">(C2*100/D2)-100</f>
-        <v>45.969603693728345</v>
+        <f t="shared" ref="B2:B11" si="0">(C2*100/D2)-100</f>
+        <v>80.357829934590228</v>
       </c>
       <c r="C2" s="4">
-        <v>60700</v>
+        <v>75000</v>
       </c>
       <c r="D2" s="4">
         <v>41584</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="4">
@@ -867,40 +806,22 @@
         <f>G2/H2</f>
         <v>9.0476190476190474</v>
       </c>
-      <c r="K2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="29">
-        <v>160.6</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="19">
-        <v>19.8</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="29">
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" si="0"/>
-        <v>21.674876847290633</v>
+        <v>32.709359605911317</v>
       </c>
       <c r="C3" s="4">
-        <v>2470</v>
+        <v>2694</v>
       </c>
       <c r="D3" s="4">
         <v>2030</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="16">
@@ -910,43 +831,25 @@
         <v>1825</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I2:I12" si="1">G3/H3</f>
+        <f t="shared" ref="I3:I12" si="1">G3/H3</f>
         <v>6.3923287671232876</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="29">
-        <v>27.3</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="19">
-        <v>10.5</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="29">
-        <v>50.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>12.742616033755269</v>
+        <v>26.476793248945143</v>
       </c>
       <c r="C4" s="4">
-        <v>5344</v>
+        <v>5995</v>
       </c>
       <c r="D4" s="4">
         <v>4740</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="26" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="16">
@@ -959,40 +862,22 @@
         <f t="shared" si="1"/>
         <v>5.5583251143190173</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="29">
-        <v>24.5</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="19">
-        <v>8.5</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="29">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
+    </row>
+    <row r="5" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>10.09262216544235</v>
+        <v>25.456966468950483</v>
       </c>
       <c r="C5" s="4">
-        <v>3447</v>
+        <v>20728</v>
       </c>
       <c r="D5" s="4">
-        <v>3131</v>
-      </c>
-      <c r="F5" s="33" t="s">
+        <v>16522</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="16">
@@ -1005,38 +890,20 @@
         <f t="shared" si="1"/>
         <v>5.2001488095238093</v>
       </c>
-      <c r="K5" s="37" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="L5" s="29">
-        <v>20.9</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="29">
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>8.2349711776008832</v>
+        <v>21.079527307569464</v>
       </c>
       <c r="C6" s="4">
-        <v>3943</v>
+        <v>3791</v>
       </c>
       <c r="D6" s="4">
-        <v>3643</v>
+        <v>3131</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>17</v>
@@ -1051,38 +918,20 @@
         <f t="shared" si="1"/>
         <v>3.9006968641114983</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="29">
-        <v>19.5</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="19">
-        <v>-0.1</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="29">
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="21" t="s">
-        <v>17</v>
+    </row>
+    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="28" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>6.6198595787362109</v>
+        <v>18.811523525693133</v>
       </c>
       <c r="C7" s="4">
-        <v>1063</v>
+        <v>39468</v>
       </c>
       <c r="D7" s="4">
-        <v>997</v>
+        <v>33219</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -1097,38 +946,20 @@
         <f t="shared" si="1"/>
         <v>3.6433497536945811</v>
       </c>
-      <c r="K7" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="29">
-        <v>11.1</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="19">
-        <v>-9.4</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="29">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
+    </row>
+    <row r="8" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>5.605225924922479</v>
+        <v>13.841524573721159</v>
       </c>
       <c r="C8" s="4">
-        <v>35081</v>
+        <v>1135</v>
       </c>
       <c r="D8" s="4">
-        <v>33219</v>
+        <v>997</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>4</v>
@@ -1143,38 +974,20 @@
         <f t="shared" si="1"/>
         <v>3.5250077663870769</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="29">
-        <v>8.1</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="19">
-        <v>-11.9</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="29">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>5.4358472086189948</v>
+        <v>8.2349711776008832</v>
       </c>
       <c r="C9" s="4">
-        <v>2153</v>
+        <v>3943</v>
       </c>
       <c r="D9" s="4">
-        <v>2042</v>
+        <v>3643</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
@@ -1189,38 +1002,20 @@
         <f t="shared" si="1"/>
         <v>3.2916666666666665</v>
       </c>
-      <c r="K9" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="29">
-        <v>4.3</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="19">
-        <v>-15.5</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="29">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="22" t="s">
-        <v>4</v>
+    </row>
+    <row r="10" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>3.437840455150706</v>
+        <v>8.1782566111655228</v>
       </c>
       <c r="C10" s="4">
-        <v>17090</v>
+        <v>2209</v>
       </c>
       <c r="D10" s="4">
-        <v>16522</v>
+        <v>2042</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -1235,35 +1030,17 @@
         <f t="shared" si="1"/>
         <v>2.2104722792607805</v>
       </c>
-      <c r="K10" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="29">
-        <v>0.6</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="19">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="29">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>3.1332744924977902</v>
+        <v>5.9576345984113033</v>
       </c>
       <c r="C11" s="4">
-        <v>4674</v>
+        <v>4802</v>
       </c>
       <c r="D11" s="4">
         <v>4532</v>
@@ -1281,39 +1058,16 @@
         <f t="shared" si="1"/>
         <v>1.4625370919881306</v>
       </c>
-      <c r="K11" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="29">
-        <v>-4.8</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="19">
-        <v>-20.100000000000001</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="29">
-        <v>-3.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
+    </row>
+    <row r="12" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2820512820512846</v>
-      </c>
-      <c r="C12" s="4">
-        <v>79</v>
-      </c>
-      <c r="D12" s="4">
-        <v>78</v>
-      </c>
+        <v>5.2</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
@@ -1327,115 +1081,97 @@
         <f t="shared" si="1"/>
         <v>1.3725490196078431</v>
       </c>
-      <c r="K12" s="37" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <f>(C14*100/D14)-100</f>
+        <v>3.8402457757296418</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1352</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1302</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="29">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="19">
-        <v>-22.4</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="29">
-        <v>-4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>-3.2258064516128968</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1260</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1302</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="29">
-        <v>-16.5</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="26">
-        <v>-65.099999999999994</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="29">
-        <v>-14.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <f>(C15*100/D15)-100</f>
+        <v>-5.1282051282051242</v>
+      </c>
+      <c r="C15" s="4">
+        <v>74</v>
+      </c>
+      <c r="D15" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="7"/>
-      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I30" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I12">
-    <sortCondition descending="1" ref="I2:I12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
+    <sortCondition descending="1" ref="B2:B15"/>
   </sortState>
-  <conditionalFormatting sqref="B2:B13">
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
@@ -1465,7 +1201,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B13</xm:sqref>
+          <xm:sqref>B2:B15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1508,7 +1244,7 @@
       </c>
       <c r="C1" s="8">
         <f ca="1">NOW()</f>
-        <v>45515.813899652778</v>
+        <v>45606.50142951389</v>
       </c>
       <c r="D1" s="8">
         <v>45292</v>
@@ -1680,7 +1416,7 @@
       </c>
       <c r="C9" s="8">
         <f ca="1">NOW()</f>
-        <v>45515.813899652778</v>
+        <v>45606.50142951389</v>
       </c>
       <c r="D9" s="8">
         <v>45292</v>

--- a/actius.xlsx
+++ b/actius.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59769021-9C30-471A-B65A-FAFE38AE702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3809A33E-D73D-4C91-8428-4B1980114B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,7 +761,7 @@
       </c>
       <c r="C1" s="21">
         <f ca="1">TODAY()</f>
-        <v>45606</v>
+        <v>45607</v>
       </c>
       <c r="D1" s="21">
         <v>45291</v>
@@ -785,10 +785,10 @@
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:B11" si="0">(C2*100/D2)-100</f>
-        <v>80.357829934590228</v>
+        <v>92.3816852635629</v>
       </c>
       <c r="C2" s="4">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="D2" s="4">
         <v>41584</v>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C1" s="8">
         <f ca="1">NOW()</f>
-        <v>45606.50142951389</v>
+        <v>45607.779519328702</v>
       </c>
       <c r="D1" s="8">
         <v>45292</v>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B7" si="0">(C2*100/D2)-100</f>
+        <f>(C2*100/D2)-100</f>
         <v>-18.015324238460096</v>
       </c>
       <c r="C2" s="4">
@@ -1288,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B2:B7" si="0">(C3*100/D3)-100</f>
         <v>-9.1178945179190976</v>
       </c>
       <c r="C3" s="4">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C9" s="8">
         <f ca="1">NOW()</f>
-        <v>45606.50142951389</v>
+        <v>45607.779519328702</v>
       </c>
       <c r="D9" s="8">
         <v>45292</v>

--- a/actius.xlsx
+++ b/actius.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3809A33E-D73D-4C91-8428-4B1980114B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C2C88D-FFA5-4A67-A50C-D0D241443E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seguiment" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Catalunya</t>
   </si>
@@ -116,18 +116,22 @@
   </si>
   <si>
     <t>Bo EUA 6 mesos</t>
+  </si>
+  <si>
+    <t>Evolució des de 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="\+0.0;\-0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0\ _€"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0\ _€"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -174,6 +178,14 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -241,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,9 +336,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -334,6 +343,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46881C33-0DEF-4826-9ADB-EC41A994B532}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,7 +779,7 @@
       </c>
       <c r="C1" s="21">
         <f ca="1">TODAY()</f>
-        <v>45607</v>
+        <v>45670</v>
       </c>
       <c r="D1" s="21">
         <v>45291</v>
@@ -781,17 +799,17 @@
     </row>
     <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B11" si="0">(C2*100/D2)-100</f>
-        <v>92.3816852635629</v>
+        <f>(C2*100/D2)-100</f>
+        <v>9.4594594594594525</v>
       </c>
       <c r="C2" s="4">
-        <v>80000</v>
+        <v>81</v>
       </c>
       <c r="D2" s="4">
-        <v>41584</v>
+        <v>74</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>9</v>
@@ -808,18 +826,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
+      <c r="A3" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="0"/>
-        <v>32.709359605911317</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2694</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2030</v>
+        <f>C3</f>
+        <v>4.78</v>
+      </c>
+      <c r="C3" s="32">
+        <v>4.78</v>
+      </c>
+      <c r="D3" s="32">
+        <v>4.5</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>7</v>
@@ -831,23 +849,23 @@
         <v>1825</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I12" si="1">G3/H3</f>
+        <f t="shared" ref="I3:I12" si="0">G3/H3</f>
         <v>6.3923287671232876</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="17" t="s">
-        <v>7</v>
+      <c r="A4" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>26.476793248945143</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5995</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4740</v>
+        <f>C4</f>
+        <v>4.3</v>
+      </c>
+      <c r="C4" s="32">
+        <v>4.3</v>
+      </c>
+      <c r="D4" s="32">
+        <v>4.2</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>5</v>
@@ -859,23 +877,23 @@
         <v>11153</v>
       </c>
       <c r="I4" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5583251143190173</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>25.456966468950483</v>
+        <f t="shared" ref="B5:B15" si="1">(C5*100/D5)-100</f>
+        <v>4.2047531992687368</v>
       </c>
       <c r="C5" s="4">
-        <v>20728</v>
+        <v>570</v>
       </c>
       <c r="D5" s="4">
-        <v>16522</v>
+        <v>547</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>16</v>
@@ -887,23 +905,23 @@
         <v>1344</v>
       </c>
       <c r="I5" s="19">
+        <f t="shared" si="0"/>
+        <v>5.2001488095238093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
         <f t="shared" si="1"/>
-        <v>5.2001488095238093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>21.079527307569464</v>
+        <v>2.5009473285335417</v>
       </c>
       <c r="C6" s="4">
-        <v>3791</v>
+        <v>2705</v>
       </c>
       <c r="D6" s="4">
-        <v>3131</v>
+        <v>2639</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>17</v>
@@ -915,23 +933,23 @@
         <v>574</v>
       </c>
       <c r="I6" s="19">
+        <f t="shared" si="0"/>
+        <v>3.9006968641114983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
         <f t="shared" si="1"/>
-        <v>3.9006968641114983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>18.811523525693133</v>
+        <v>1.1144130757800923</v>
       </c>
       <c r="C7" s="4">
-        <v>39468</v>
+        <v>1361</v>
       </c>
       <c r="D7" s="4">
-        <v>33219</v>
+        <v>1346</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -943,23 +961,23 @@
         <v>3045</v>
       </c>
       <c r="I7" s="19">
+        <f t="shared" si="0"/>
+        <v>3.6433497536945811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" si="1"/>
-        <v>3.6433497536945811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>13.841524573721159</v>
+        <v>0.63329928498467325</v>
       </c>
       <c r="C8" s="4">
-        <v>1135</v>
+        <v>4926</v>
       </c>
       <c r="D8" s="4">
-        <v>997</v>
+        <v>4895</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>4</v>
@@ -971,23 +989,23 @@
         <v>16095</v>
       </c>
       <c r="I8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5250077663870769</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>8.2349711776008832</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C9" s="4">
-        <v>3943</v>
+        <v>2271</v>
       </c>
       <c r="D9" s="4">
-        <v>3643</v>
+        <v>2271</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
@@ -999,23 +1017,23 @@
         <v>24</v>
       </c>
       <c r="I9" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2916666666666665</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>8.1782566111655228</v>
+        <f t="shared" si="1"/>
+        <v>-0.91821118857336614</v>
       </c>
       <c r="C10" s="4">
-        <v>2209</v>
+        <v>5827</v>
       </c>
       <c r="D10" s="4">
-        <v>2042</v>
+        <v>5881</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -1027,23 +1045,23 @@
         <v>974</v>
       </c>
       <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>2.2104722792607805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
         <f t="shared" si="1"/>
-        <v>2.2104722792607805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>5.9576345984113033</v>
+        <v>-0.9981116806042678</v>
       </c>
       <c r="C11" s="4">
-        <v>4802</v>
+        <v>3670</v>
       </c>
       <c r="D11" s="4">
-        <v>4532</v>
+        <v>3707</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -1055,19 +1073,24 @@
         <v>2696</v>
       </c>
       <c r="I11" s="19">
+        <f t="shared" si="0"/>
+        <v>1.4625370919881306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
         <f t="shared" si="1"/>
-        <v>1.4625370919881306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+        <v>-1.7646763924399664</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39190</v>
+      </c>
+      <c r="D12" s="4">
+        <v>39894</v>
+      </c>
       <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
@@ -1078,54 +1101,59 @@
         <v>918</v>
       </c>
       <c r="I12" s="19">
+        <f t="shared" si="0"/>
+        <v>1.3725490196078431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
         <f t="shared" si="1"/>
-        <v>1.3725490196078431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+        <v>-2.8041350909592637</v>
+      </c>
+      <c r="C13" s="4">
+        <v>91576</v>
+      </c>
+      <c r="D13" s="4">
+        <v>94218</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
-        <f>(C14*100/D14)-100</f>
-        <v>3.8402457757296418</v>
+        <f t="shared" si="1"/>
+        <v>-3.4418604651162781</v>
       </c>
       <c r="C14" s="4">
-        <v>1352</v>
+        <v>1038</v>
       </c>
       <c r="D14" s="4">
-        <v>1302</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+        <v>1075</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
+      <c r="A15" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B15" s="3">
-        <f>(C15*100/D15)-100</f>
-        <v>-5.1282051282051242</v>
+        <f t="shared" si="1"/>
+        <v>-5.9075726606510841</v>
       </c>
       <c r="C15" s="4">
-        <v>74</v>
+        <v>18874</v>
       </c>
       <c r="D15" s="4">
-        <v>78</v>
+        <v>20059</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.35">
@@ -1211,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0A71B-F9FA-4E45-8679-5B51BE4A2368}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1235,7 +1263,7 @@
     <col min="14" max="14" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1244,7 +1272,7 @@
       </c>
       <c r="C1" s="8">
         <f ca="1">NOW()</f>
-        <v>45607.779519328702</v>
+        <v>45670.520081134258</v>
       </c>
       <c r="D1" s="8">
         <v>45292</v>
@@ -1258,22 +1286,25 @@
       <c r="G1" s="8">
         <v>44197</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3">
         <f>(C2*100/D2)-100</f>
-        <v>-18.015324238460096</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4387</v>
-      </c>
-      <c r="D2" s="4">
+        <v>-25.098112502336008</v>
+      </c>
+      <c r="C2" s="14">
+        <v>4008</v>
+      </c>
+      <c r="D2" s="15">
         <v>5351</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="14">
         <v>7856</v>
       </c>
       <c r="F2" s="14">
@@ -1282,22 +1313,26 @@
       <c r="G2" s="15">
         <v>13023</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="3">
+        <f>(C2*100/G2)-100</f>
+        <v>-69.223681179451745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B2:B7" si="0">(C3*100/D3)-100</f>
-        <v>-9.1178945179190976</v>
-      </c>
-      <c r="C3" s="4">
-        <v>96136</v>
-      </c>
-      <c r="D3" s="4">
+        <f t="shared" ref="B3:B7" si="0">(C3*100/D3)-100</f>
+        <v>-16.940660421058595</v>
+      </c>
+      <c r="C3" s="14">
+        <v>87861</v>
+      </c>
+      <c r="D3" s="15">
         <v>105781</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="14">
         <v>120344</v>
       </c>
       <c r="F3" s="14">
@@ -1306,22 +1341,26 @@
       <c r="G3" s="15">
         <v>145180</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H7" si="1">(C3*100/G3)-100</f>
+        <v>-39.481333517013361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>-11.062093305393191</v>
-      </c>
-      <c r="C4" s="4">
-        <v>16128</v>
-      </c>
-      <c r="D4" s="4">
+        <v>-21.694055365611561</v>
+      </c>
+      <c r="C4" s="14">
+        <v>14200</v>
+      </c>
+      <c r="D4" s="15">
         <v>18134</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="14">
         <v>22107</v>
       </c>
       <c r="F4" s="14">
@@ -1330,22 +1369,26 @@
       <c r="G4" s="15">
         <v>23155</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>-38.674152450874544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>-4.5261289905170372</v>
-      </c>
-      <c r="C5" s="4">
-        <v>103297</v>
-      </c>
-      <c r="D5" s="4">
+        <v>-13.789119544521881</v>
+      </c>
+      <c r="C5" s="14">
+        <v>93275</v>
+      </c>
+      <c r="D5" s="15">
         <v>108194</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="14">
         <v>113475</v>
       </c>
       <c r="F5" s="14">
@@ -1354,22 +1397,26 @@
       <c r="G5" s="15">
         <v>117586</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>-20.675080366710318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>-10.422740524781346</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3687</v>
-      </c>
-      <c r="D6" s="4">
+        <v>-19.314868804664727</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3321</v>
+      </c>
+      <c r="D6" s="15">
         <v>4116</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="14">
         <v>4802</v>
       </c>
       <c r="F6" s="14">
@@ -1378,22 +1425,26 @@
       <c r="G6" s="15">
         <v>5954</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>-44.222371514947937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>-7.0863147706453731</v>
-      </c>
-      <c r="C7" s="4">
-        <v>26879</v>
-      </c>
-      <c r="D7" s="4">
+        <v>-11.832417297521516</v>
+      </c>
+      <c r="C7" s="14">
+        <v>25506</v>
+      </c>
+      <c r="D7" s="15">
         <v>28929</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="14">
         <v>29223</v>
       </c>
       <c r="F7" s="14">
@@ -1402,12 +1453,16 @@
       <c r="G7" s="15">
         <v>35814</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>-28.782040542804495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E8" s="10"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1416,7 +1471,7 @@
       </c>
       <c r="C9" s="8">
         <f ca="1">NOW()</f>
-        <v>45607.779519328702</v>
+        <v>45670.520081134258</v>
       </c>
       <c r="D9" s="8">
         <v>45292</v>
@@ -1430,19 +1485,22 @@
       <c r="G9" s="8">
         <v>44197</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ref="B10:B15" si="1">(C10*100/D10)-100</f>
-        <v>36.714285714285722</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2871</v>
-      </c>
-      <c r="D10" s="4">
+        <f>(C10*100/D10)-100</f>
+        <v>20.19047619047619</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2524</v>
+      </c>
+      <c r="D10" s="11">
         <v>2100</v>
       </c>
       <c r="E10" s="11">
@@ -1454,19 +1512,23 @@
       <c r="G10" s="13">
         <v>6092</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="3">
+        <f>(C10*100/G10)-100</f>
+        <v>-58.568614576493765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
-        <v>23.341441839893847</v>
-      </c>
-      <c r="C11" s="4">
-        <v>11155</v>
-      </c>
-      <c r="D11" s="4">
+        <f t="shared" ref="B11:B15" si="2">(C11*100/D11)-100</f>
+        <v>21.450685537372848</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10984</v>
+      </c>
+      <c r="D11" s="11">
         <v>9044</v>
       </c>
       <c r="E11" s="11">
@@ -1478,19 +1540,23 @@
       <c r="G11" s="13">
         <v>15873</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="3">
+        <f t="shared" ref="H11:H15" si="3">(C11*100/G11)-100</f>
+        <v>-30.800730800730804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="1"/>
-        <v>-8.8805074575690099</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5315</v>
-      </c>
-      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>-9.9091376650094247</v>
+      </c>
+      <c r="C12" s="11">
+        <v>5255</v>
+      </c>
+      <c r="D12" s="11">
         <v>5833</v>
       </c>
       <c r="E12" s="11">
@@ -1502,19 +1568,23 @@
       <c r="G12" s="13">
         <v>18442</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
+        <v>-71.505259733217656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
-        <v>-8.8496499843276553</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8724</v>
-      </c>
-      <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>-10.145230383449999</v>
+      </c>
+      <c r="C13" s="11">
+        <v>8600</v>
+      </c>
+      <c r="D13" s="11">
         <v>9571</v>
       </c>
       <c r="E13" s="11">
@@ -1526,19 +1596,23 @@
       <c r="G13" s="13">
         <v>23713</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
+        <v>-63.732973474465481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="1"/>
-        <v>-13.900134952766535</v>
-      </c>
-      <c r="C14" s="4">
-        <v>638</v>
-      </c>
-      <c r="D14" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.6680161943319831</v>
+      </c>
+      <c r="C14" s="11">
+        <v>699</v>
+      </c>
+      <c r="D14" s="11">
         <v>741</v>
       </c>
       <c r="E14" s="11">
@@ -1550,19 +1624,23 @@
       <c r="G14" s="13">
         <v>2623</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>-73.351124666412503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="1"/>
-        <v>-5.0420168067226854</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3164</v>
-      </c>
-      <c r="D15" s="4">
+        <f t="shared" si="2"/>
+        <v>14.435774309723897</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3813</v>
+      </c>
+      <c r="D15" s="11">
         <v>3332</v>
       </c>
       <c r="E15" s="11">
@@ -1574,10 +1652,14 @@
       <c r="G15" s="13">
         <v>7977</v>
       </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>-52.200075216246709</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1591,6 +1673,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B15">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DFD4702-AFA2-4D91-98CB-0AD8A93A7697}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{96C1573B-A030-48E0-B2A2-67E751F2AFDF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H15">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1599,7 +1709,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5DFD4702-AFA2-4D91-98CB-0AD8A93A7697}</x14:id>
+          <x14:id>{29352116-8E53-43B4-8488-612C04A5EB1A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1648,6 +1758,32 @@
           </x14:cfRule>
           <xm:sqref>B10:B15</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{96C1573B-A030-48E0-B2A2-67E751F2AFDF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{29352116-8E53-43B4-8488-612C04A5EB1A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10:H15</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/actius.xlsx
+++ b/actius.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C2C88D-FFA5-4A67-A50C-D0D241443E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6520BA98-BF25-43C6-8933-5A1188E70577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seguiment" sheetId="10" r:id="rId1"/>
@@ -88,12 +88,6 @@
     <t>Matèries primeres</t>
   </si>
   <si>
-    <t>actius</t>
-  </si>
-  <si>
-    <t>rendiment</t>
-  </si>
-  <si>
     <t>multiple</t>
   </si>
   <si>
@@ -119,6 +113,12 @@
   </si>
   <si>
     <t>Evolució des de 2021</t>
+  </si>
+  <si>
+    <t>Rendiment en %</t>
+  </si>
+  <si>
+    <t>Actius</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,6 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,6 +349,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46881C33-0DEF-4826-9ADB-EC41A994B532}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,56 +762,56 @@
     <col min="1" max="1" width="37.81640625" customWidth="1"/>
     <col min="2" max="3" width="20.7265625" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" style="23" customWidth="1"/>
     <col min="6" max="6" width="35.81640625" customWidth="1"/>
     <col min="7" max="8" width="17.54296875" customWidth="1"/>
     <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="10" width="5.08984375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" style="23" customWidth="1"/>
     <col min="11" max="12" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="20">
+        <f ca="1">TODAY()</f>
+        <v>45738</v>
+      </c>
+      <c r="D1" s="20">
+        <v>45657</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="21">
-        <f ca="1">TODAY()</f>
-        <v>45670</v>
-      </c>
-      <c r="D1" s="21">
-        <v>45291</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <f>(C2*100/D2)-100</f>
-        <v>9.4594594594594525</v>
+        <v>18.096614985791916</v>
       </c>
       <c r="C2" s="4">
-        <v>81</v>
+        <v>23689</v>
       </c>
       <c r="D2" s="4">
-        <v>74</v>
-      </c>
-      <c r="F2" s="25" t="s">
+        <v>20059</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="4">
@@ -820,26 +820,26 @@
       <c r="H2" s="16">
         <v>273</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <f>G2/H2</f>
         <v>9.0476190476190474</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="3">
-        <f>C3</f>
-        <v>4.78</v>
-      </c>
-      <c r="C3" s="32">
-        <v>4.78</v>
-      </c>
-      <c r="D3" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="25" t="s">
+        <f>(C3*100/D3)-100</f>
+        <v>14.437286851079961</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3020</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2639</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="16">
@@ -848,26 +848,26 @@
       <c r="H3" s="16">
         <v>1825</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <f t="shared" ref="I3:I12" si="0">G3/H3</f>
         <v>6.3923287671232876</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="31" t="s">
-        <v>28</v>
+      <c r="A4" s="33" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <f>C4</f>
-        <v>4.3</v>
-      </c>
-      <c r="C4" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="D4" s="32">
-        <v>4.2</v>
-      </c>
-      <c r="F4" s="26" t="s">
+        <f>(C4*100/D4)-100</f>
+        <v>10.561797752808985</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5412</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4895</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="16">
@@ -876,26 +876,26 @@
       <c r="H4" s="16">
         <v>11153</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <f t="shared" si="0"/>
         <v>5.5583251143190173</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
+      <c r="A5" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B15" si="1">(C5*100/D5)-100</f>
-        <v>4.2047531992687368</v>
+        <f>(C5*100/D5)-100</f>
+        <v>5.2093023255813904</v>
       </c>
       <c r="C5" s="4">
-        <v>570</v>
+        <v>1131</v>
       </c>
       <c r="D5" s="4">
-        <v>547</v>
-      </c>
-      <c r="F5" s="27" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="16">
@@ -904,24 +904,24 @@
       <c r="H5" s="16">
         <v>1344</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <f t="shared" si="0"/>
         <v>5.2001488095238093</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+      <c r="A6" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5009473285335417</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2705</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2639</v>
+        <f>C6</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C6" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D6" s="31">
+        <v>4.5</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>17</v>
@@ -932,24 +932,24 @@
       <c r="H6" s="16">
         <v>574</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <f t="shared" si="0"/>
         <v>3.9006968641114983</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="31" t="s">
-        <v>15</v>
+      <c r="A7" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1144130757800923</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1361</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1346</v>
+        <f>C7</f>
+        <v>4.3</v>
+      </c>
+      <c r="C7" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="D7" s="31">
+        <v>4.2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -960,24 +960,24 @@
       <c r="H7" s="16">
         <v>3045</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <f t="shared" si="0"/>
         <v>3.6433497536945811</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.63329928498467325</v>
+        <f t="shared" ref="B8:B15" si="1">(C8*100/D8)-100</f>
+        <v>2.0109689213893915</v>
       </c>
       <c r="C8" s="4">
-        <v>4926</v>
+        <v>558</v>
       </c>
       <c r="D8" s="4">
-        <v>4895</v>
+        <v>547</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>4</v>
@@ -988,7 +988,7 @@
       <c r="H8" s="16">
         <v>16095</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <f t="shared" si="0"/>
         <v>3.5250077663870769</v>
       </c>
@@ -1016,24 +1016,24 @@
       <c r="H9" s="16">
         <v>24</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <f t="shared" si="0"/>
         <v>3.2916666666666665</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="17" t="s">
-        <v>7</v>
+      <c r="A10" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="1"/>
-        <v>-0.91821118857336614</v>
+        <v>-7.4294205052012785E-2</v>
       </c>
       <c r="C10" s="4">
-        <v>5827</v>
+        <v>1345</v>
       </c>
       <c r="D10" s="4">
-        <v>5881</v>
+        <v>1346</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -1044,7 +1044,7 @@
       <c r="H10" s="16">
         <v>974</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f t="shared" si="0"/>
         <v>2.2104722792607805</v>
       </c>
@@ -1055,10 +1055,10 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="1"/>
-        <v>-0.9981116806042678</v>
+        <v>-0.72835176692743175</v>
       </c>
       <c r="C11" s="4">
-        <v>3670</v>
+        <v>3680</v>
       </c>
       <c r="D11" s="4">
         <v>3707</v>
@@ -1072,24 +1072,24 @@
       <c r="H11" s="16">
         <v>2696</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <f t="shared" si="0"/>
         <v>1.4625370919881306</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12" t="s">
-        <v>5</v>
+      <c r="A12" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="1"/>
-        <v>-1.7646763924399664</v>
+        <v>-2.7027027027027088</v>
       </c>
       <c r="C12" s="4">
-        <v>39190</v>
+        <v>72</v>
       </c>
       <c r="D12" s="4">
-        <v>39894</v>
+        <v>74</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>15</v>
@@ -1100,64 +1100,64 @@
       <c r="H12" s="16">
         <v>918</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <f t="shared" si="0"/>
         <v>1.3725490196078431</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="1"/>
-        <v>-2.8041350909592637</v>
+        <v>-3.6388369324944705</v>
       </c>
       <c r="C13" s="4">
-        <v>91576</v>
+        <v>5667</v>
       </c>
       <c r="D13" s="4">
-        <v>94218</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+        <v>5881</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
+      <c r="A14" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="1"/>
-        <v>-3.4418604651162781</v>
+        <v>-5.557226650624159</v>
       </c>
       <c r="C14" s="4">
-        <v>1038</v>
+        <v>37677</v>
       </c>
       <c r="D14" s="4">
-        <v>1075</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+        <v>39894</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12" t="s">
-        <v>4</v>
+      <c r="A15" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="1"/>
-        <v>-5.9075726606510841</v>
+        <v>-10.845061453225497</v>
       </c>
       <c r="C15" s="4">
-        <v>18874</v>
+        <v>84000</v>
       </c>
       <c r="D15" s="4">
-        <v>20059</v>
+        <v>94218</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I18" s="22"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="7"/>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0A71B-F9FA-4E45-8679-5B51BE4A2368}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1265,14 +1265,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8">
         <f ca="1">NOW()</f>
-        <v>45670.520081134258</v>
+        <v>45738.687613310183</v>
       </c>
       <c r="D1" s="8">
         <v>45292</v>
@@ -1286,8 +1286,8 @@
       <c r="G1" s="8">
         <v>44197</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>29</v>
+      <c r="H1" s="32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1296,10 +1296,10 @@
       </c>
       <c r="B2" s="3">
         <f>(C2*100/D2)-100</f>
-        <v>-25.098112502336008</v>
+        <v>-32.10614838347972</v>
       </c>
       <c r="C2" s="14">
-        <v>4008</v>
+        <v>3633</v>
       </c>
       <c r="D2" s="15">
         <v>5351</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="H2" s="3">
         <f>(C2*100/G2)-100</f>
-        <v>-69.223681179451745</v>
+        <v>-72.103202027182675</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1324,10 +1324,10 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B7" si="0">(C3*100/D3)-100</f>
-        <v>-16.940660421058595</v>
+        <v>-19.897713199913028</v>
       </c>
       <c r="C3" s="14">
-        <v>87861</v>
+        <v>84733</v>
       </c>
       <c r="D3" s="15">
         <v>105781</v>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H7" si="1">(C3*100/G3)-100</f>
-        <v>-39.481333517013361</v>
+        <v>-41.635900261744041</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1352,10 +1352,10 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>-21.694055365611561</v>
+        <v>-25.135105327010038</v>
       </c>
       <c r="C4" s="14">
-        <v>14200</v>
+        <v>13576</v>
       </c>
       <c r="D4" s="15">
         <v>18134</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>-38.674152450874544</v>
+        <v>-41.369034765709351</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1380,10 +1380,10 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>-13.789119544521881</v>
+        <v>-19.039872821043687</v>
       </c>
       <c r="C5" s="14">
-        <v>93275</v>
+        <v>87594</v>
       </c>
       <c r="D5" s="15">
         <v>108194</v>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>-20.675080366710318</v>
+        <v>-25.506437841239602</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1408,10 +1408,10 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>-19.314868804664727</v>
+        <v>-24.149659863945573</v>
       </c>
       <c r="C6" s="14">
-        <v>3321</v>
+        <v>3122</v>
       </c>
       <c r="D6" s="15">
         <v>4116</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>-44.222371514947937</v>
+        <v>-47.564662411823981</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1436,10 +1436,10 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>-11.832417297521516</v>
+        <v>-14.756818417504931</v>
       </c>
       <c r="C7" s="14">
-        <v>25506</v>
+        <v>24660</v>
       </c>
       <c r="D7" s="15">
         <v>28929</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>-28.782040542804495</v>
+        <v>-31.144245267213932</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1464,14 +1464,14 @@
     </row>
     <row r="9" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="8">
         <f ca="1">NOW()</f>
-        <v>45670.520081134258</v>
+        <v>45738.687613310183</v>
       </c>
       <c r="D9" s="8">
         <v>45292</v>
@@ -1485,8 +1485,8 @@
       <c r="G9" s="8">
         <v>44197</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>29</v>
+      <c r="H9" s="32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1495,10 +1495,10 @@
       </c>
       <c r="B10" s="3">
         <f>(C10*100/D10)-100</f>
-        <v>20.19047619047619</v>
+        <v>23.238095238095241</v>
       </c>
       <c r="C10" s="11">
-        <v>2524</v>
+        <v>2588</v>
       </c>
       <c r="D10" s="11">
         <v>2100</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="H10" s="3">
         <f>(C10*100/G10)-100</f>
-        <v>-58.568614576493765</v>
+        <v>-57.518056467498361</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1523,10 +1523,10 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ref="B11:B15" si="2">(C11*100/D11)-100</f>
-        <v>21.450685537372848</v>
+        <v>18.188854489164086</v>
       </c>
       <c r="C11" s="11">
-        <v>10984</v>
+        <v>10689</v>
       </c>
       <c r="D11" s="11">
         <v>9044</v>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" ref="H11:H15" si="3">(C11*100/G11)-100</f>
-        <v>-30.800730800730804</v>
+        <v>-32.659232659232657</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1551,10 +1551,10 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="2"/>
-        <v>-9.9091376650094247</v>
+        <v>-14.640836619235387</v>
       </c>
       <c r="C12" s="11">
-        <v>5255</v>
+        <v>4979</v>
       </c>
       <c r="D12" s="11">
         <v>5833</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>-71.505259733217656</v>
+        <v>-73.001843617828868</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1579,10 +1579,10 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="2"/>
-        <v>-10.145230383449999</v>
+        <v>-17.636610594504234</v>
       </c>
       <c r="C13" s="11">
-        <v>8600</v>
+        <v>7883</v>
       </c>
       <c r="D13" s="11">
         <v>9571</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>-63.732973474465481</v>
+        <v>-66.756631383629241</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1607,10 +1607,10 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="2"/>
-        <v>-5.6680161943319831</v>
+        <v>-13.090418353576254</v>
       </c>
       <c r="C14" s="11">
-        <v>699</v>
+        <v>644</v>
       </c>
       <c r="D14" s="11">
         <v>741</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>-73.351124666412503</v>
+        <v>-75.447960350743415</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1635,10 +1635,10 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="2"/>
-        <v>14.435774309723897</v>
+        <v>4.3217286914765936</v>
       </c>
       <c r="C15" s="11">
-        <v>3813</v>
+        <v>3476</v>
       </c>
       <c r="D15" s="11">
         <v>3332</v>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
-        <v>-52.200075216246709</v>
+        <v>-56.424721073085117</v>
       </c>
     </row>
   </sheetData>

--- a/actius.xlsx
+++ b/actius.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6520BA98-BF25-43C6-8933-5A1188E70577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EC9761-278E-4751-8195-7F186E346DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Catalunya</t>
   </si>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,9 +328,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -754,7 +751,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,7 +776,7 @@
       </c>
       <c r="C1" s="20">
         <f ca="1">TODAY()</f>
-        <v>45738</v>
+        <v>45752</v>
       </c>
       <c r="D1" s="20">
         <v>45657</v>
@@ -815,14 +812,14 @@
         <v>9</v>
       </c>
       <c r="G2" s="4">
-        <v>2470</v>
+        <v>3020</v>
       </c>
       <c r="H2" s="16">
         <v>273</v>
       </c>
       <c r="I2" s="18">
         <f>G2/H2</f>
-        <v>9.0476190476190474</v>
+        <v>11.062271062271062</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -843,18 +840,18 @@
         <v>7</v>
       </c>
       <c r="G3" s="16">
-        <v>11666</v>
+        <v>11178</v>
       </c>
       <c r="H3" s="16">
         <v>1825</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" ref="I3:I12" si="0">G3/H3</f>
-        <v>6.3923287671232876</v>
+        <v>6.1249315068493146</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
@@ -871,14 +868,14 @@
         <v>5</v>
       </c>
       <c r="G4" s="16">
-        <v>61992</v>
+        <v>60855</v>
       </c>
       <c r="H4" s="16">
         <v>11153</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="0"/>
-        <v>5.5583251143190173</v>
+        <v>5.4563794494754774</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -895,18 +892,18 @@
       <c r="D5" s="4">
         <v>1075</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>16</v>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G5" s="16">
-        <v>6989</v>
+        <v>12211</v>
       </c>
       <c r="H5" s="16">
-        <v>1344</v>
+        <v>3045</v>
       </c>
       <c r="I5" s="18">
-        <f t="shared" si="0"/>
-        <v>5.2001488095238093</v>
+        <f>G5/H5</f>
+        <v>4.010180623973727</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -917,52 +914,52 @@
         <f>C6</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>4.5</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>17</v>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="G6" s="16">
-        <v>2239</v>
+        <v>77193</v>
       </c>
       <c r="H6" s="16">
-        <v>574</v>
+        <v>16095</v>
       </c>
       <c r="I6" s="18">
-        <f t="shared" si="0"/>
-        <v>3.9006968641114983</v>
+        <f>G6/H6</f>
+        <v>4.7960857409133268</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3">
         <f>C7</f>
         <v>4.3</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>4.3</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>4.2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="16">
-        <v>11094</v>
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>72</v>
       </c>
       <c r="H7" s="16">
-        <v>3045</v>
+        <v>24</v>
       </c>
       <c r="I7" s="18">
-        <f t="shared" si="0"/>
-        <v>3.6433497536945811</v>
+        <f>G7/H7</f>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -979,18 +976,18 @@
       <c r="D8" s="4">
         <v>547</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="16">
-        <v>56735</v>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2271</v>
       </c>
       <c r="H8" s="16">
-        <v>16095</v>
+        <v>974</v>
       </c>
       <c r="I8" s="18">
-        <f t="shared" si="0"/>
-        <v>3.5250077663870769</v>
+        <f>G8/H8</f>
+        <v>2.3316221765913756</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1008,21 +1005,21 @@
         <v>2271</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="H9" s="16">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="I9" s="18">
-        <f t="shared" si="0"/>
-        <v>3.2916666666666665</v>
+        <f>G9/H9</f>
+        <v>2.2591093117408905</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3">
@@ -1035,18 +1032,18 @@
       <c r="D10" s="4">
         <v>1346</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
+      <c r="F10" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="4">
-        <v>2153</v>
+        <v>1346</v>
       </c>
       <c r="H10" s="16">
-        <v>974</v>
+        <v>918</v>
       </c>
       <c r="I10" s="18">
-        <f t="shared" si="0"/>
-        <v>2.2104722792607805</v>
+        <f>G10/H10</f>
+        <v>1.4662309368191722</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1063,19 +1060,6 @@
       <c r="D11" s="4">
         <v>3707</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3943</v>
-      </c>
-      <c r="H11" s="16">
-        <v>2696</v>
-      </c>
-      <c r="I11" s="18">
-        <f t="shared" si="0"/>
-        <v>1.4625370919881306</v>
-      </c>
     </row>
     <row r="12" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
@@ -1091,19 +1075,6 @@
       <c r="D12" s="4">
         <v>74</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1260</v>
-      </c>
-      <c r="H12" s="16">
-        <v>918</v>
-      </c>
-      <c r="I12" s="18">
-        <f t="shared" si="0"/>
-        <v>1.3725490196078431</v>
-      </c>
     </row>
     <row r="13" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
@@ -1119,9 +1090,9 @@
       <c r="D13" s="4">
         <v>5881</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="12" t="s">
@@ -1137,9 +1108,9 @@
       <c r="D14" s="4">
         <v>39894</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
@@ -1272,7 +1243,7 @@
       </c>
       <c r="C1" s="8">
         <f ca="1">NOW()</f>
-        <v>45738.687613310183</v>
+        <v>45752.55205810185</v>
       </c>
       <c r="D1" s="8">
         <v>45292</v>
@@ -1286,7 +1257,7 @@
       <c r="G1" s="8">
         <v>44197</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1471,7 +1442,7 @@
       </c>
       <c r="C9" s="8">
         <f ca="1">NOW()</f>
-        <v>45738.687613310183</v>
+        <v>45752.55205810185</v>
       </c>
       <c r="D9" s="8">
         <v>45292</v>
@@ -1485,7 +1456,7 @@
       <c r="G9" s="8">
         <v>44197</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>27</v>
       </c>
     </row>
